--- a/2024-11-20/2024-11-20.xlsx
+++ b/2024-11-20/2024-11-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keabraekman/Documents-Offline/job-applications/2024-11-20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9374977B-4FEB-C14E-967F-F1073D6D033E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC20BAE1-F323-584A-AA94-0D70AEB9C5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="-19720" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,13 +108,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,13 +421,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
     <col min="3" max="3" width="28.1640625" customWidth="1"/>
     <col min="4" max="4" width="32.5" customWidth="1"/>
   </cols>
@@ -473,11 +484,14 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{BE6BB6DE-A1A5-8741-AABE-97DBCE19D51A}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>